--- a/data/intermediate/table2.04_20241202_e_2.04 In Rupees 2006-2010_organized.xlsx
+++ b/data/intermediate/table2.04_20241202_e_2.04 In Rupees 2006-2010_organized.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD349"/>
+  <dimension ref="A1:AD68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,14 +576,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1900-01-06</t>
+          <t>2.04 Imports - Monthly 2006-2010</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1900-01-10</t>
+          <t>2.04 Imports - Monthly 2006-2010</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -662,7 +662,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1900-01-18</t>
+          <t>2006    January</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -741,7 +741,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1900-02-14</t>
+          <t>2007    January</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1900-02-16</t>
+          <t>2008 January</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -899,7 +899,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1900-02-18</t>
+          <t>2009    January</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -978,7 +978,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1900-02-19</t>
+          <t>2010    January</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -1057,7 +1057,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1900-03-25</t>
+          <t>April</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1136,7 +1136,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1900-07-03</t>
+          <t>April</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1215,7 +1215,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1900-08-07</t>
+          <t>April</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1294,7 +1294,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1900-08-15</t>
+          <t>April</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1373,7 +1373,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1900-10-16</t>
+          <t>April</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1452,7 +1452,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1900-11-24</t>
+          <t>August</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1531,14 +1531,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1900-12-19</t>
+          <t>August</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1901-01-31</t>
+          <t>August</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1617,7 +1617,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1901-02-05</t>
+          <t>August</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1696,7 +1696,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1901-02-11</t>
+          <t>August</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1775,7 +1775,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1901-03-12</t>
+          <t>Consumer Goods</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1854,7 +1854,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1901-03-25</t>
+          <t>December</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1933,7 +1933,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1901-04-01</t>
+          <t>December</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2012,7 +2012,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1901-04-28</t>
+          <t>December</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2091,7 +2091,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1901-05-04</t>
+          <t>December</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2170,7 +2170,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1901-06-11</t>
+          <t>December</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2249,7 +2249,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1901-07-12</t>
+          <t>February</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2328,7 +2328,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1901-07-29</t>
+          <t>February</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2407,7 +2407,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1901-08-08</t>
+          <t>February</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2486,14 +2486,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1901-08-09</t>
+          <t>February</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1901-08-11</t>
+          <t>February</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -2572,7 +2572,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1901-09-08</t>
+          <t>July</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2651,7 +2651,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1901-10-04</t>
+          <t>July</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -2730,7 +2730,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1901-10-18</t>
+          <t>July</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -2809,7 +2809,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1901-11-28</t>
+          <t>July</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -2888,7 +2888,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1902-01-08</t>
+          <t>July</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -2967,7 +2967,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1902-07-25</t>
+          <t>June</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -3046,7 +3046,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1902-09-19</t>
+          <t>June</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -3125,7 +3125,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1902-10-11</t>
+          <t>June</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -3204,7 +3204,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1902-10-13</t>
+          <t>June</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -3283,7 +3283,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1902-11-22</t>
+          <t>June</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -3362,7 +3362,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1902-12-09</t>
+          <t>March</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -3441,14 +3441,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1903-01-13</t>
+          <t>March</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1903-03-03</t>
+          <t>March</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -3527,7 +3527,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1903-05-04</t>
+          <t>March</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -3606,7 +3606,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1903-05-05</t>
+          <t>March</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -3685,7 +3685,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1903-07-01</t>
+          <t>May</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -3764,7 +3764,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1903-07-31</t>
+          <t>May</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -3843,7 +3843,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1903-10-12</t>
+          <t>May</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -3922,7 +3922,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1903-11-14</t>
+          <t>May</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -4001,7 +4001,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1903-11-22</t>
+          <t>May</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -4080,7 +4080,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1903-12-10</t>
+          <t>November</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -4159,7 +4159,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1903-12-24</t>
+          <t>November</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -4238,7 +4238,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1904-02-04</t>
+          <t>November</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -4317,7 +4317,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1904-04-02</t>
+          <t>November</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -4396,14 +4396,14 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1904-07-19</t>
+          <t>November</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1904-07-20</t>
+          <t>October</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -4482,7 +4482,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1905-01-13</t>
+          <t>October</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -4561,7 +4561,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1905-01-23</t>
+          <t>October</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -4640,7 +4640,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1905-01-26</t>
+          <t>October</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -4719,7 +4719,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1905-01-30</t>
+          <t>October</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -4798,7 +4798,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1905-02-14</t>
+          <t>September</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -4877,7 +4877,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1905-03-08</t>
+          <t>September</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -4956,7 +4956,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1905-09-10</t>
+          <t>September</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -5035,7 +5035,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1905-09-13</t>
+          <t>September</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -5114,7 +5114,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1905-09-21</t>
+          <t>September</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -5193,7 +5193,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1905-10-01</t>
+          <t>Source: Central Bank of Sri Lanka</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -5272,7 +5272,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1905-10-19</t>
+          <t>Table 2.04.6: Imports (Rupees) - Monthly (2006-2010)</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -5351,1984 +5351,11 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1905-11-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>1906-01-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>1906-01-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>1906-03-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>1906-03-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>1906-04-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>1906-06-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>1906-07-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>1906-09-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>1906-10-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>1906-11-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>1906-11-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>1907-02-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>1907-04-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>1907-05-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>1907-06-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>1907-08-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>1907-09-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>1908-04-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>1908-06-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>1908-11-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>1908-12-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>1908-12-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>1909-10-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>1909-10-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>1910-05-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>1910-08-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>1910-09-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>1910-09-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>1910-12-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>1910-12-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>1912-01-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>1912-10-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>1914-05-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>1915-05-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>1915-11-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>1916-07-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>1916-07-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>1916-12-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>1917-06-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>1918-10-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>1918-12-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>1920-06-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>1921-08-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>1922-07-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>1922-10-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>1923-03-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>1924-05-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>1924-10-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>1924-11-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>1925-01-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>1925-03-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>1926-02-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>1926-03-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>1927-05-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>1927-10-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>1929-09-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>1930-09-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>1930-11-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>1932-08-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>1934-12-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>1938-01-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>1938-01-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>1942-09-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>1943-04-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>1943-06-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>1943-10-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>1946-01-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>1946-11-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>1957-02-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>1967-05-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>1968-07-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>1989-04-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>1990-10-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>2006-01-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>2006-01-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>2006-02-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>2006-03-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>2006-04-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>2006-05-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>2006-06-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>2006-07-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>2006-08-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>2006-09-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>2006-10-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>2006-11-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>2006-12-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>2007-01-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>2007-01-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>2007-02-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>2007-03-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>2007-04-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>2007-05-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>2007-06-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>2007-07-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>2007-08-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>2007-09-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>2007-09-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>2007-10-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>2007-11-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>2007-12-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>2008-01-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>2008-01-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>2008-02-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>2008-03-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>2008-04-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>2008-05-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>2008-06-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>2008-07-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>2008-08-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>2008-09-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>2008-10-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>2008-11-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>2008-12-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>2009-01-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>2009-01-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>2009-02-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>2009-03-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>2009-04-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>2009-05-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>2009-06-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>2009-07-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>2009-08-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>2009-09-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>2009-10-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>2009-11-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>2009-12-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>2010-01-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>2010-01-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>2010-02-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>2010-02-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>2010-03-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>2010-04-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>2010-05-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>2010-06-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>2010-07-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>2010-08-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>2010-09-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>2010-10-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>2010-11-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>2010-12-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>2022-10-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>2027-06-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>2090-04-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>2104-06-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>2112-07-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>2127-04-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>2140-05-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>2248-09-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>2287-06-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>2.04 Imports - Monthly 2006-2010</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>2.04 Imports - Monthly 2006-2010</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>Building Materials</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>Building Materials</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>Cemical Elements &amp; Compounds</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>Cemical Elements &amp; Compounds</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>Consumer Goods</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>Consumer Goods</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>Dyening, Tanning &amp; Colouring Materials</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>Dyening, Tanning &amp; Colouring Materials</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>Fertiliser</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>Fertiliser</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>Fish Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>Fish Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>Fish dried</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>Fish dried</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>Flour</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>Flour</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>Food and Drink</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>Food and Drink</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>Intermediate Goods</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>Intermediate Goods</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>Investment Goods</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>Investment Goods</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>Machinery &amp; Equipment</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>Machinery &amp; Equipment</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>Medical &amp; Pharmaceutical Products</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>Medical &amp; Pharmaceutical Products</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>Milk &amp;Milk Products</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>Milk &amp;Milk Products</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>Motor cars &amp; Cycles</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>Motor cars &amp; Cycles</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>Other Consumer goods</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>Other Consumer goods</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>Other Food</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>Other Food</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>Paper &amp; Paper Boards</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>Paper &amp; Paper Boards</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>Petroleum</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>Petroleum</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>Radio Receivers &amp; televisions Sets</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>Radio Receivers &amp; televisions Sets</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>Rice</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>Rice</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>Rubber Tyres &amp; Tubes</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>Rubber Tyres &amp; Tubes</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>Source: Central Bank of Sri Lanka</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>Source: Central Bank of Sri Lanka</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>Sugar</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>Sugar</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>Table 2.04.6: Imports (Rupees) - Monthly (2006-2010)</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>Table 2.04.6: Imports (Rupees) - Monthly (2006-2010)</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>Textiles</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>Textiles</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>Total Imports</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>Total Imports</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>Transport Equipments</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>Transport Equipments</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>Wheat &amp; Meslin</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>Wheat &amp; Meslin</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
           <t>Year</t>
         </is>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-    </row>
+    <row r="68"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
